--- a/invoice-doc/APIリファレンス.xlsx
+++ b/invoice-doc/APIリファレンス.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12708"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">id検索API!$A$1:$AV$94</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$AV$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$AV$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">全件検索API!$A$1:$AV$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">登録API!$A$1:$AV$80</definedName>
   </definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="162">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -628,14 +628,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>POST /invoices/creates</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://localhost:8080/invoice-api/invoices/creates</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>指定した期間の請求書情報を作成します。</t>
     <rPh sb="0" eb="2">
       <t>シテイ</t>
@@ -690,22 +682,6 @@
   </si>
   <si>
     <t>リクエストボディサンプル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"total_count": 3,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"no": 20004},</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"no": 20005},</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"no": 20006}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -809,14 +785,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"start_date": "2017/12/10",</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"end_date": "2017/12/30"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>正常系</t>
     <rPh sb="0" eb="2">
       <t>セイジョウ</t>
@@ -844,10 +812,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"filed": "status",</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラーコード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -869,16 +833,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>文字種エラー</t>
-    <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォーマットエラー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -913,19 +867,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"client_no": "1000",</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>"code": 40,</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>"message":"Client No. is requered"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"message":"Client No. does not exist",</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1031,10 +977,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"code": 21,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>"message":"Invoice No. must be an integer"</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1047,7 +989,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>異常系（IDが整数でない場合、文字種エラー）</t>
+    <t>"message":"Client No. does not exist"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"total_count": 1,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"end_date": "2017/11/30"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"start_date": "2017/11/01",</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"no": 20002}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"client_no": 5,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"code": 30,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常系（IDが整数でない場合、フォーマットエラー）</t>
     <rPh sb="0" eb="2">
       <t>イジョウ</t>
     </rPh>
@@ -1060,12 +1030,79 @@
     <rPh sb="12" eb="14">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>シュ</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST /invoices</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客管理番号を指定することで、1件から請求書情報を作成することが可能です。</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間のみの指定の場合は、顧客管理番号ごとに請求書情報を作成します。</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"filed": "invoice_no",</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1340,9 +1377,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1350,6 +1384,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1667,9 +1704,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:AP56"/>
+  <dimension ref="B2:AP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1762,7 +1799,7 @@
     </row>
     <row r="19" spans="2:42" x14ac:dyDescent="0.45">
       <c r="C19" s="6" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.45">
@@ -1937,7 +1974,7 @@
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.45">
       <c r="C26" s="6" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.45">
@@ -2462,7 +2499,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
@@ -2505,7 +2542,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
@@ -2674,185 +2711,155 @@
     </row>
     <row r="50" spans="2:25" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B50" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="D51" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20" t="s">
+      <c r="D51" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="20"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="D52" s="21">
+      <c r="D52" s="20">
         <v>10</v>
       </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="23"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="22"/>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="D53" s="21">
+      <c r="D53" s="20">
         <v>20</v>
       </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="23"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="22"/>
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="D54" s="21">
-        <v>21</v>
-      </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="22"/>
-      <c r="U54" s="22"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="22"/>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="23"/>
+      <c r="D54" s="20">
+        <v>30</v>
+      </c>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="22"/>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="D55" s="21">
-        <v>30</v>
-      </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="22"/>
-      <c r="U55" s="22"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="22"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="23"/>
-    </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="D56" s="21">
+      <c r="D55" s="20">
         <v>40</v>
       </c>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="23"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="10">
     <mergeCell ref="D54:N54"/>
     <mergeCell ref="O54:Y54"/>
     <mergeCell ref="D55:N55"/>
     <mergeCell ref="O55:Y55"/>
-    <mergeCell ref="D56:N56"/>
-    <mergeCell ref="O56:Y56"/>
     <mergeCell ref="D51:N51"/>
     <mergeCell ref="O51:Y51"/>
     <mergeCell ref="D52:N52"/>
@@ -2886,7 +2893,7 @@
   <sheetData>
     <row r="2" spans="2:24" ht="27" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
@@ -2906,7 +2913,7 @@
     </row>
     <row r="10" spans="2:24" ht="18" x14ac:dyDescent="0.45">
       <c r="C10" s="5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
@@ -2915,70 +2922,70 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="21" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="23"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="22"/>
     </row>
     <row r="18" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
       <c r="C19" s="8" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -3026,88 +3033,88 @@
       </c>
     </row>
     <row r="23" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
     </row>
     <row r="24" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>200</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="21" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="23"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="22"/>
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>204</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="21" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="23"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="22"/>
     </row>
     <row r="28" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B28" s="3" t="s">
@@ -3115,60 +3122,60 @@
       </c>
     </row>
     <row r="29" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
     </row>
     <row r="30" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="21" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="23"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="22"/>
     </row>
     <row r="31" spans="2:42" x14ac:dyDescent="0.45">
       <c r="N31" s="4"/>
@@ -3181,13 +3188,13 @@
     <row r="34" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B34" s="3"/>
       <c r="C34" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B35" s="3"/>
       <c r="C35" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3805,7 +3812,7 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -5521,7 +5528,7 @@
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
@@ -6530,6 +6537,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="N30:X30"/>
     <mergeCell ref="C14:M14"/>
     <mergeCell ref="N14:X14"/>
     <mergeCell ref="N29:X29"/>
@@ -6538,12 +6551,6 @@
     <mergeCell ref="N15:X15"/>
     <mergeCell ref="C25:M25"/>
     <mergeCell ref="N25:X25"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="N23:X23"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="N24:X24"/>
-    <mergeCell ref="N30:X30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -6574,7 +6581,7 @@
   <sheetData>
     <row r="2" spans="2:24" ht="27" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
@@ -6584,7 +6591,7 @@
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
@@ -6594,7 +6601,7 @@
     </row>
     <row r="10" spans="2:24" ht="18" x14ac:dyDescent="0.45">
       <c r="C10" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
@@ -6603,60 +6610,60 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="21" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="23"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="22"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.45">
       <c r="C16" s="7"/>
@@ -6689,67 +6696,67 @@
       </c>
     </row>
     <row r="19" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20" t="s">
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="20"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="20"/>
-      <c r="AN19" s="20"/>
-      <c r="AO19" s="20"/>
-      <c r="AP19" s="20"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="23"/>
+      <c r="AL19" s="23"/>
+      <c r="AM19" s="23"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="23"/>
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C20" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="23"/>
+      <c r="C20" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
       <c r="N20" s="24" t="s">
         <v>94</v>
       </c>
@@ -6786,13 +6793,13 @@
     </row>
     <row r="23" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B23" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
       <c r="C24" s="8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -6840,116 +6847,116 @@
       </c>
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
     </row>
     <row r="29" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>200</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="21" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="23"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="22"/>
     </row>
     <row r="30" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>204</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="21" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="23"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="22"/>
     </row>
     <row r="31" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>400</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="23"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="22"/>
     </row>
     <row r="34" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B34" s="3" t="s">
@@ -6957,60 +6964,60 @@
       </c>
     </row>
     <row r="35" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20" t="s">
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
     </row>
     <row r="36" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="21" t="s">
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="23"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="22"/>
     </row>
     <row r="37" spans="2:42" x14ac:dyDescent="0.45">
       <c r="N37" s="4"/>
@@ -7023,13 +7030,13 @@
     <row r="40" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B40" s="3"/>
       <c r="C40" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B41" s="3"/>
       <c r="C41" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -7603,7 +7610,7 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -8612,7 +8619,7 @@
     </row>
     <row r="79" spans="3:42" x14ac:dyDescent="0.45">
       <c r="C79" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="3:42" x14ac:dyDescent="0.45">
@@ -8926,7 +8933,7 @@
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
@@ -8970,7 +8977,7 @@
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
@@ -9014,7 +9021,7 @@
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
@@ -9187,18 +9194,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="N31:X31"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q19:AP19"/>
-    <mergeCell ref="Q20:AP20"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="C19:M19"/>
     <mergeCell ref="C36:M36"/>
     <mergeCell ref="N36:X36"/>
     <mergeCell ref="C35:M35"/>
@@ -9209,6 +9204,18 @@
     <mergeCell ref="N29:X29"/>
     <mergeCell ref="C30:M30"/>
     <mergeCell ref="N30:X30"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="N31:X31"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q19:AP19"/>
+    <mergeCell ref="Q20:AP20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -9228,7 +9235,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:AP75"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -9239,7 +9246,7 @@
   <sheetData>
     <row r="2" spans="2:24" ht="27" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
@@ -9249,273 +9256,195 @@
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="B9" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="C7" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="C8" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="18" x14ac:dyDescent="0.45">
-      <c r="C10" s="5" t="s">
+    <row r="12" spans="2:24" ht="18" x14ac:dyDescent="0.45">
+      <c r="C12" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="C16" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+    </row>
+    <row r="17" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="20" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="13" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="C14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="C15" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="23"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="C16" s="21" t="s">
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="22"/>
+    </row>
+    <row r="18" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="21" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="23"/>
-    </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-    </row>
-    <row r="19" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="B19" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C20" s="11" t="s">
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="22"/>
+    </row>
+    <row r="19" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+    </row>
+    <row r="21" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B21" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="12"/>
-      <c r="AN20" s="12"/>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="13"/>
-    </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C21" s="14"/>
-      <c r="D21" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
-      <c r="AP21" s="16"/>
-    </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C22" s="14"/>
-      <c r="D22" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
-      <c r="AM22" s="15"/>
-      <c r="AN22" s="15"/>
-      <c r="AO22" s="15"/>
-      <c r="AP22" s="16"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="13"/>
     </row>
     <row r="23" spans="2:42" x14ac:dyDescent="0.45">
       <c r="C23" s="14"/>
       <c r="D23" s="15" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -9557,267 +9486,259 @@
       <c r="AP23" s="16"/>
     </row>
     <row r="24" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="16"/>
+    </row>
+    <row r="25" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C25" s="14"/>
+      <c r="D25" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="16"/>
+    </row>
+    <row r="26" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C26" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
-      <c r="AJ24" s="18"/>
-      <c r="AK24" s="18"/>
-      <c r="AL24" s="18"/>
-      <c r="AM24" s="18"/>
-      <c r="AN24" s="18"/>
-      <c r="AO24" s="18"/>
-      <c r="AP24" s="19"/>
-    </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-    </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-    </row>
-    <row r="27" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="B27" s="3" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="19"/>
+    </row>
+    <row r="27" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+    </row>
+    <row r="28" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+    </row>
+    <row r="29" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B29" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C28" s="20" t="s">
+    <row r="30" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C30" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20" t="s">
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20" t="s">
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="20"/>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="20"/>
-    </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C29" s="21" t="s">
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="23"/>
+      <c r="AL30" s="23"/>
+      <c r="AM30" s="23"/>
+      <c r="AN30" s="23"/>
+      <c r="AO30" s="23"/>
+      <c r="AP30" s="23"/>
+    </row>
+    <row r="31" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C31" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="24" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="24" t="s">
         <v>94</v>
-      </c>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="24"/>
-      <c r="AI29" s="24"/>
-      <c r="AJ29" s="24"/>
-      <c r="AK29" s="24"/>
-      <c r="AL29" s="24"/>
-      <c r="AM29" s="24"/>
-      <c r="AN29" s="24"/>
-      <c r="AO29" s="24"/>
-      <c r="AP29" s="24"/>
-    </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C30" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="24"/>
-      <c r="AE30" s="24"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="24"/>
-      <c r="AH30" s="24"/>
-      <c r="AI30" s="24"/>
-      <c r="AJ30" s="24"/>
-      <c r="AK30" s="24"/>
-      <c r="AL30" s="24"/>
-      <c r="AM30" s="24"/>
-      <c r="AN30" s="24"/>
-      <c r="AO30" s="24"/>
-      <c r="AP30" s="24"/>
-    </row>
-    <row r="31" spans="2:42" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="25" t="s">
-        <v>125</v>
+      <c r="Q31" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
@@ -9845,27 +9766,27 @@
       <c r="AO31" s="24"/>
       <c r="AP31" s="24"/>
     </row>
-    <row r="32" spans="2:42" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="23"/>
+    <row r="32" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C32" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="22"/>
       <c r="N32" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
-      <c r="Q32" s="25" t="s">
-        <v>126</v>
+      <c r="Q32" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="R32" s="24"/>
       <c r="S32" s="24"/>
@@ -9893,27 +9814,27 @@
       <c r="AO32" s="24"/>
       <c r="AP32" s="24"/>
     </row>
-    <row r="33" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C33" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="23"/>
+    <row r="33" spans="2:42" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="22"/>
       <c r="N33" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
       <c r="Q33" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R33" s="24"/>
       <c r="S33" s="24"/>
@@ -9941,27 +9862,27 @@
       <c r="AO33" s="24"/>
       <c r="AP33" s="24"/>
     </row>
-    <row r="34" spans="2:42" ht="101.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="23"/>
+    <row r="34" spans="2:42" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C34" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
       <c r="N34" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
       <c r="Q34" s="25" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
@@ -9989,335 +9910,343 @@
       <c r="AO34" s="24"/>
       <c r="AP34" s="24"/>
     </row>
-    <row r="37" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="B37" s="3" t="s">
+    <row r="35" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C35" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="24"/>
+      <c r="AD35" s="24"/>
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="24"/>
+      <c r="AH35" s="24"/>
+      <c r="AI35" s="24"/>
+      <c r="AJ35" s="24"/>
+      <c r="AK35" s="24"/>
+      <c r="AL35" s="24"/>
+      <c r="AM35" s="24"/>
+      <c r="AN35" s="24"/>
+      <c r="AO35" s="24"/>
+      <c r="AP35" s="24"/>
+    </row>
+    <row r="36" spans="2:42" ht="101.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C36" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="24"/>
+      <c r="AH36" s="24"/>
+      <c r="AI36" s="24"/>
+      <c r="AJ36" s="24"/>
+      <c r="AK36" s="24"/>
+      <c r="AL36" s="24"/>
+      <c r="AM36" s="24"/>
+      <c r="AN36" s="24"/>
+      <c r="AO36" s="24"/>
+      <c r="AP36" s="24"/>
+    </row>
+    <row r="39" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B39" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C38" s="20" t="s">
+    <row r="40" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C40" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20" t="s">
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-    </row>
-    <row r="39" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C39" s="21">
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+    </row>
+    <row r="41" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C41" s="20">
         <v>201</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="23"/>
-    </row>
-    <row r="40" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C40" s="21">
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="22"/>
+    </row>
+    <row r="42" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C42" s="20">
         <v>204</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="21" t="s">
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="23"/>
-    </row>
-    <row r="41" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C41" s="21">
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="22"/>
+    </row>
+    <row r="43" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C43" s="20">
         <v>400</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="23"/>
-    </row>
-    <row r="44" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="B44" s="3" t="s">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="22"/>
+    </row>
+    <row r="46" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C45" s="20" t="s">
+    <row r="47" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C47" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20" t="s">
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-    </row>
-    <row r="46" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C46" s="21" t="s">
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+    </row>
+    <row r="48" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C48" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="21" t="s">
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="23"/>
-    </row>
-    <row r="47" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="N47" s="4"/>
-    </row>
-    <row r="49" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="B49" s="3" t="s">
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="22"/>
+    </row>
+    <row r="49" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="N49" s="4"/>
+    </row>
+    <row r="51" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B51" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="B50" s="3"/>
-      <c r="C50" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="B51" s="3"/>
-      <c r="C51" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="12"/>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="12"/>
-      <c r="AD51" s="12"/>
-      <c r="AE51" s="12"/>
-      <c r="AF51" s="12"/>
-      <c r="AG51" s="12"/>
-      <c r="AH51" s="12"/>
-      <c r="AI51" s="12"/>
-      <c r="AJ51" s="12"/>
-      <c r="AK51" s="12"/>
-      <c r="AL51" s="12"/>
-      <c r="AM51" s="12"/>
-      <c r="AN51" s="12"/>
-      <c r="AO51" s="12"/>
-      <c r="AP51" s="13"/>
     </row>
     <row r="52" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B52" s="3"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="15"/>
-      <c r="AA52" s="15"/>
-      <c r="AB52" s="15"/>
-      <c r="AC52" s="15"/>
-      <c r="AD52" s="15"/>
-      <c r="AE52" s="15"/>
-      <c r="AF52" s="15"/>
-      <c r="AG52" s="15"/>
-      <c r="AH52" s="15"/>
-      <c r="AI52" s="15"/>
-      <c r="AJ52" s="15"/>
-      <c r="AK52" s="15"/>
-      <c r="AL52" s="15"/>
-      <c r="AM52" s="15"/>
-      <c r="AN52" s="15"/>
-      <c r="AO52" s="15"/>
-      <c r="AP52" s="16"/>
-    </row>
-    <row r="53" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C53" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="15"/>
-      <c r="AA53" s="15"/>
-      <c r="AB53" s="15"/>
-      <c r="AC53" s="15"/>
-      <c r="AD53" s="15"/>
-      <c r="AE53" s="15"/>
-      <c r="AF53" s="15"/>
-      <c r="AG53" s="15"/>
-      <c r="AH53" s="15"/>
-      <c r="AI53" s="15"/>
-      <c r="AJ53" s="15"/>
-      <c r="AK53" s="15"/>
-      <c r="AL53" s="15"/>
-      <c r="AM53" s="15"/>
-      <c r="AN53" s="15"/>
-      <c r="AO53" s="15"/>
-      <c r="AP53" s="16"/>
-    </row>
-    <row r="54" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="C52" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B53" s="3"/>
+      <c r="C53" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="12"/>
+      <c r="AO53" s="12"/>
+      <c r="AP53" s="13"/>
+    </row>
+    <row r="54" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B54" s="3"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="15" t="s">
-        <v>121</v>
-      </c>
+      <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
@@ -10358,10 +10287,10 @@
       <c r="AP54" s="16"/>
     </row>
     <row r="55" spans="2:42" x14ac:dyDescent="0.45">
-      <c r="C55" s="14"/>
-      <c r="D55" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="C55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -10403,10 +10332,10 @@
     </row>
     <row r="56" spans="2:42" x14ac:dyDescent="0.45">
       <c r="C56" s="14"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15" t="s">
-        <v>122</v>
-      </c>
+      <c r="D56" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
@@ -10447,10 +10376,10 @@
     </row>
     <row r="57" spans="2:42" x14ac:dyDescent="0.45">
       <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15" t="s">
-        <v>123</v>
-      </c>
+      <c r="D57" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
@@ -10493,7 +10422,7 @@
       <c r="C58" s="14"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -10623,7 +10552,7 @@
     </row>
     <row r="63" spans="2:42" x14ac:dyDescent="0.45">
       <c r="C63" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="2:42" x14ac:dyDescent="0.45">
@@ -10672,7 +10601,7 @@
     </row>
     <row r="65" spans="3:42" x14ac:dyDescent="0.45">
       <c r="C65" s="14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
@@ -10803,7 +10732,7 @@
     <row r="68" spans="3:42" x14ac:dyDescent="0.45">
       <c r="C68" s="14"/>
       <c r="D68" s="15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
@@ -10937,7 +10866,7 @@
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -10981,7 +10910,7 @@
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -11154,45 +11083,45 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="N41:X41"/>
-    <mergeCell ref="C45:M45"/>
-    <mergeCell ref="N45:X45"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="N46:X46"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="Q30:AP30"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="N17:X17"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="C32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:AP32"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q31:AP31"/>
     <mergeCell ref="C33:M33"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="Q33:AP33"/>
     <mergeCell ref="C34:M34"/>
     <mergeCell ref="N34:P34"/>
     <mergeCell ref="Q34:AP34"/>
-    <mergeCell ref="C38:M38"/>
-    <mergeCell ref="N38:X38"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="N39:X39"/>
     <mergeCell ref="C40:M40"/>
     <mergeCell ref="N40:X40"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="Q31:AP31"/>
-    <mergeCell ref="C32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:AP32"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="Q30:AP30"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:AP29"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="Q28:AP28"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="N41:X41"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="N42:X42"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:AP35"/>
+    <mergeCell ref="C36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:AP36"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="N43:X43"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="N47:X47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="N48:X48"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -11202,7 +11131,7 @@
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="47" max="47" man="1"/>
+    <brk id="49" max="47" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/invoice-doc/APIリファレンス.xlsx
+++ b/invoice-doc/APIリファレンス.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">id検索API!$A$1:$AV$94</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$AV$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$AV$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">全件検索API!$A$1:$AV$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">登録API!$A$1:$AV$80</definedName>
   </definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="161">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -823,16 +823,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>文字長エラー</t>
-    <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォーマットエラー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1013,10 +1003,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"code": 30,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>異常系（IDが整数でない場合、フォーマットエラー）</t>
     <rPh sb="0" eb="2">
       <t>イジョウ</t>
@@ -1103,6 +1089,10 @@
   </si>
   <si>
     <t>"filed": "invoice_no",</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"code": 20,</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1704,7 +1694,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:AP55"/>
+  <dimension ref="B2:AP54"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
@@ -1799,7 +1789,7 @@
     </row>
     <row r="19" spans="2:42" x14ac:dyDescent="0.45">
       <c r="C19" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.45">
@@ -1974,7 +1964,7 @@
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.45">
       <c r="C26" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.45">
@@ -2499,7 +2489,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
@@ -2542,7 +2532,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
@@ -2711,7 +2701,7 @@
     </row>
     <row r="50" spans="2:25" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B50" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.45">
@@ -2826,46 +2816,16 @@
       <c r="X54" s="21"/>
       <c r="Y54" s="22"/>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="D55" s="20">
-        <v>40</v>
-      </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="22"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
+    <mergeCell ref="D53:N53"/>
+    <mergeCell ref="O53:Y53"/>
     <mergeCell ref="D54:N54"/>
     <mergeCell ref="O54:Y54"/>
-    <mergeCell ref="D55:N55"/>
-    <mergeCell ref="O55:Y55"/>
     <mergeCell ref="D51:N51"/>
     <mergeCell ref="O51:Y51"/>
     <mergeCell ref="D52:N52"/>
     <mergeCell ref="O52:Y52"/>
-    <mergeCell ref="D53:N53"/>
-    <mergeCell ref="O53:Y53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -2893,7 +2853,7 @@
   <sheetData>
     <row r="2" spans="2:24" ht="27" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
@@ -2913,7 +2873,7 @@
     </row>
     <row r="10" spans="2:24" ht="18" x14ac:dyDescent="0.45">
       <c r="C10" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
@@ -2979,13 +2939,13 @@
     </row>
     <row r="18" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
       <c r="C19" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -6537,12 +6497,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="N23:X23"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="N24:X24"/>
-    <mergeCell ref="N30:X30"/>
     <mergeCell ref="C14:M14"/>
     <mergeCell ref="N14:X14"/>
     <mergeCell ref="N29:X29"/>
@@ -6551,6 +6505,12 @@
     <mergeCell ref="N15:X15"/>
     <mergeCell ref="C25:M25"/>
     <mergeCell ref="N25:X25"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="N30:X30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -6581,7 +6541,7 @@
   <sheetData>
     <row r="2" spans="2:24" ht="27" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
@@ -6591,7 +6551,7 @@
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
@@ -6601,7 +6561,7 @@
     </row>
     <row r="10" spans="2:24" ht="18" x14ac:dyDescent="0.45">
       <c r="C10" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
@@ -6745,7 +6705,7 @@
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.45">
       <c r="C20" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -6793,13 +6753,13 @@
     </row>
     <row r="23" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B23" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="2:42" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
       <c r="C24" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -8619,7 +8579,7 @@
     </row>
     <row r="79" spans="3:42" x14ac:dyDescent="0.45">
       <c r="C79" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="3:42" x14ac:dyDescent="0.45">
@@ -8933,7 +8893,7 @@
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
@@ -8977,7 +8937,7 @@
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
@@ -9021,7 +8981,7 @@
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
@@ -9194,6 +9154,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="N31:X31"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q19:AP19"/>
+    <mergeCell ref="Q20:AP20"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="C19:M19"/>
     <mergeCell ref="C36:M36"/>
     <mergeCell ref="N36:X36"/>
     <mergeCell ref="C35:M35"/>
@@ -9204,18 +9176,6 @@
     <mergeCell ref="N29:X29"/>
     <mergeCell ref="C30:M30"/>
     <mergeCell ref="N30:X30"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="N31:X31"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q19:AP19"/>
-    <mergeCell ref="Q20:AP20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -9246,7 +9206,7 @@
   <sheetData>
     <row r="2" spans="2:24" ht="27" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
@@ -9261,12 +9221,12 @@
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
@@ -9276,7 +9236,7 @@
     </row>
     <row r="12" spans="2:24" ht="18" x14ac:dyDescent="0.45">
       <c r="C12" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.45">
@@ -9444,7 +9404,7 @@
     <row r="23" spans="2:42" x14ac:dyDescent="0.45">
       <c r="C23" s="14"/>
       <c r="D23" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -9488,7 +9448,7 @@
     <row r="24" spans="2:42" x14ac:dyDescent="0.45">
       <c r="C24" s="14"/>
       <c r="D24" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -9532,7 +9492,7 @@
     <row r="25" spans="2:42" x14ac:dyDescent="0.45">
       <c r="C25" s="14"/>
       <c r="D25" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -10333,7 +10293,7 @@
     <row r="56" spans="2:42" x14ac:dyDescent="0.45">
       <c r="C56" s="14"/>
       <c r="D56" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
@@ -10422,7 +10382,7 @@
       <c r="C58" s="14"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -10552,7 +10512,7 @@
     </row>
     <row r="63" spans="2:42" x14ac:dyDescent="0.45">
       <c r="C63" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="2:42" x14ac:dyDescent="0.45">
@@ -10601,7 +10561,7 @@
     </row>
     <row r="65" spans="3:42" x14ac:dyDescent="0.45">
       <c r="C65" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
@@ -10732,7 +10692,7 @@
     <row r="68" spans="3:42" x14ac:dyDescent="0.45">
       <c r="C68" s="14"/>
       <c r="D68" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
@@ -10866,7 +10826,7 @@
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -10910,7 +10870,7 @@
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -11083,6 +11043,36 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="N43:X43"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="N47:X47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="N48:X48"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:AP35"/>
+    <mergeCell ref="C36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:AP36"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="N40:X40"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="N41:X41"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="N42:X42"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:AP33"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:AP34"/>
+    <mergeCell ref="C32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:AP32"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q31:AP31"/>
     <mergeCell ref="C30:M30"/>
     <mergeCell ref="N30:P30"/>
     <mergeCell ref="Q30:AP30"/>
@@ -11092,36 +11082,6 @@
     <mergeCell ref="N17:X17"/>
     <mergeCell ref="C18:M18"/>
     <mergeCell ref="N18:X18"/>
-    <mergeCell ref="C32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:AP32"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="Q31:AP31"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:AP33"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:AP34"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="N40:X40"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="N41:X41"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="N42:X42"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="Q35:AP35"/>
-    <mergeCell ref="C36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="Q36:AP36"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="N43:X43"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="N47:X47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="N48:X48"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
